--- a/biology/Médecine/Louis-Jean_Garreau/Louis-Jean_Garreau.xlsx
+++ b/biology/Médecine/Louis-Jean_Garreau/Louis-Jean_Garreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Jean Garreau est un médecin français, né à Changé, le 16 septembre 1827, et mort à Changé le 5 août 1883. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Garreau fit ses études médicales à Paris où il fut élève de Briquet, Lenoir, Bichard, Beau, Gibert, etc.  
 Il fut reçu interne des hôpitaux de Paris, le premier de sa promotion, le 20 décembre 1852 et passa sa thèse de doctorat le 18 décembre 1856 Des hydatides du poumon. 
